--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4094.156922545189</v>
+        <v>4229.374625004148</v>
       </c>
       <c r="AB2" t="n">
-        <v>5601.806122882448</v>
+        <v>5786.816948770824</v>
       </c>
       <c r="AC2" t="n">
-        <v>5067.177608698609</v>
+        <v>5234.531261028515</v>
       </c>
       <c r="AD2" t="n">
-        <v>4094156.922545189</v>
+        <v>4229374.625004148</v>
       </c>
       <c r="AE2" t="n">
-        <v>5601806.122882448</v>
+        <v>5786816.948770824</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.026561201346765e-07</v>
+        <v>1.356929995835127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.24305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>5067177.608698609</v>
+        <v>5234531.261028515</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1346.206640617183</v>
+        <v>1418.937437848657</v>
       </c>
       <c r="AB3" t="n">
-        <v>1841.939316137847</v>
+        <v>1941.452801566267</v>
       </c>
       <c r="AC3" t="n">
-        <v>1666.147212983717</v>
+        <v>1756.163271030903</v>
       </c>
       <c r="AD3" t="n">
-        <v>1346206.640617183</v>
+        <v>1418937.437848657</v>
       </c>
       <c r="AE3" t="n">
-        <v>1841939.316137847</v>
+        <v>1941452.801566267</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.515739201781041e-06</v>
+        <v>2.562432325831875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1666147.212983717</v>
+        <v>1756163.271030903</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000.506210242898</v>
+        <v>1062.822523269791</v>
       </c>
       <c r="AB4" t="n">
-        <v>1368.93673607314</v>
+        <v>1454.200664758236</v>
       </c>
       <c r="AC4" t="n">
-        <v>1238.287335297094</v>
+        <v>1315.413794297161</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000506.210242898</v>
+        <v>1062822.523269791</v>
       </c>
       <c r="AE4" t="n">
-        <v>1368936.73607314</v>
+        <v>1454200.664758236</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.781978281978385e-06</v>
+        <v>3.012522700677223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.37083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1238287.335297094</v>
+        <v>1315413.794297161</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>840.7360483794585</v>
+        <v>892.8938102569341</v>
       </c>
       <c r="AB5" t="n">
-        <v>1150.332152049503</v>
+        <v>1221.69670288832</v>
       </c>
       <c r="AC5" t="n">
-        <v>1040.546065959213</v>
+        <v>1105.09968422675</v>
       </c>
       <c r="AD5" t="n">
-        <v>840736.0483794585</v>
+        <v>892893.8102569341</v>
       </c>
       <c r="AE5" t="n">
-        <v>1150332.152049503</v>
+        <v>1221696.70288832</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.927425056201262e-06</v>
+        <v>3.258407689017394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1040546.065959213</v>
+        <v>1105099.68422675</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>795.9574999512877</v>
+        <v>847.9446696281713</v>
       </c>
       <c r="AB6" t="n">
-        <v>1089.064166599946</v>
+        <v>1160.195305663916</v>
       </c>
       <c r="AC6" t="n">
-        <v>985.1254110508045</v>
+        <v>1049.46789403569</v>
       </c>
       <c r="AD6" t="n">
-        <v>795957.4999512876</v>
+        <v>847944.6696281713</v>
       </c>
       <c r="AE6" t="n">
-        <v>1089064.166599946</v>
+        <v>1160195.305663916</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.971482153307891e-06</v>
+        <v>3.332888397621939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>985125.4110508044</v>
+        <v>1049467.89403569</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>799.0447912556989</v>
+        <v>851.0319609325824</v>
       </c>
       <c r="AB7" t="n">
-        <v>1093.288334764321</v>
+        <v>1164.419473828292</v>
       </c>
       <c r="AC7" t="n">
-        <v>988.9464305342287</v>
+        <v>1053.288913519114</v>
       </c>
       <c r="AD7" t="n">
-        <v>799044.7912556989</v>
+        <v>851031.9609325824</v>
       </c>
       <c r="AE7" t="n">
-        <v>1093288.334764321</v>
+        <v>1164419.473828292</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.971628037735396e-06</v>
+        <v>3.333135022484868e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.27638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>988946.4305342287</v>
+        <v>1053288.913519114</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2435.200004501296</v>
+        <v>2536.105682939898</v>
       </c>
       <c r="AB2" t="n">
-        <v>3331.948079600792</v>
+        <v>3470.011680484845</v>
       </c>
       <c r="AC2" t="n">
-        <v>3013.951631302067</v>
+        <v>3138.838635891222</v>
       </c>
       <c r="AD2" t="n">
-        <v>2435200.004501296</v>
+        <v>2536105.682939898</v>
       </c>
       <c r="AE2" t="n">
-        <v>3331948.079600791</v>
+        <v>3470011.680484845</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.061538918048676e-06</v>
+        <v>1.838363552370031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.74444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3013951.631302067</v>
+        <v>3138838.635891222</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1030.230875625143</v>
+        <v>1090.689031342283</v>
       </c>
       <c r="AB3" t="n">
-        <v>1409.607334608813</v>
+        <v>1492.328850486591</v>
       </c>
       <c r="AC3" t="n">
-        <v>1275.076388990067</v>
+        <v>1349.903079492846</v>
       </c>
       <c r="AD3" t="n">
-        <v>1030230.875625143</v>
+        <v>1090689.031342283</v>
       </c>
       <c r="AE3" t="n">
-        <v>1409607.334608813</v>
+        <v>1492328.850486591</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.722397451192712e-06</v>
+        <v>2.982832417287341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1275076.388990067</v>
+        <v>1349903.079492847</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>775.269321848902</v>
+        <v>835.7273880574911</v>
       </c>
       <c r="AB4" t="n">
-        <v>1060.757688622259</v>
+        <v>1143.479082030489</v>
       </c>
       <c r="AC4" t="n">
-        <v>959.5204636029166</v>
+        <v>1034.347043324469</v>
       </c>
       <c r="AD4" t="n">
-        <v>775269.321848902</v>
+        <v>835727.3880574912</v>
       </c>
       <c r="AE4" t="n">
-        <v>1060757.688622259</v>
+        <v>1143479.082030489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.968389551906295e-06</v>
+        <v>3.408839325215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.64861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>959520.4636029166</v>
+        <v>1034347.04332447</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>742.4065854029849</v>
+        <v>792.7741732762651</v>
       </c>
       <c r="AB5" t="n">
-        <v>1015.793442815345</v>
+        <v>1084.708598604719</v>
       </c>
       <c r="AC5" t="n">
-        <v>918.8475423080994</v>
+        <v>981.1855323519635</v>
       </c>
       <c r="AD5" t="n">
-        <v>742406.5854029849</v>
+        <v>792774.173276265</v>
       </c>
       <c r="AE5" t="n">
-        <v>1015793.442815345</v>
+        <v>1084708.598604719</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.007174809503468e-06</v>
+        <v>3.476007285544698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.44305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>918847.5423080993</v>
+        <v>981185.5323519635</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>720.6144196689529</v>
+        <v>775.2213619992244</v>
       </c>
       <c r="AB2" t="n">
-        <v>985.9764402555429</v>
+        <v>1060.692067840091</v>
       </c>
       <c r="AC2" t="n">
-        <v>891.8762326241786</v>
+        <v>959.4611055760994</v>
       </c>
       <c r="AD2" t="n">
-        <v>720614.4196689529</v>
+        <v>775221.3619992244</v>
       </c>
       <c r="AE2" t="n">
-        <v>985976.4402555429</v>
+        <v>1060692.067840091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.90981986947363e-06</v>
+        <v>3.613790166646203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>891876.2326241785</v>
+        <v>959461.1055760994</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.4842014190914</v>
+        <v>713.1763950953838</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.9671346543029</v>
+        <v>975.7994068915006</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.980095838211</v>
+        <v>882.6704810408443</v>
       </c>
       <c r="AD3" t="n">
-        <v>658484.2014190914</v>
+        <v>713176.3950953837</v>
       </c>
       <c r="AE3" t="n">
-        <v>900967.1346543028</v>
+        <v>975799.4068915006</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993851270132067e-06</v>
+        <v>3.772795659385507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>814980.095838211</v>
+        <v>882670.4810408442</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1139.697380743921</v>
+        <v>1206.088544850709</v>
       </c>
       <c r="AB2" t="n">
-        <v>1559.384236233695</v>
+        <v>1650.223555936044</v>
       </c>
       <c r="AC2" t="n">
-        <v>1410.558793337072</v>
+        <v>1492.728535860815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1139697.380743922</v>
+        <v>1206088.544850708</v>
       </c>
       <c r="AE2" t="n">
-        <v>1559384.236233695</v>
+        <v>1650223.555936045</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.562372569616709e-06</v>
+        <v>2.846303513922444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.32222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1410558.793337072</v>
+        <v>1492728.535860815</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>681.8511768830531</v>
+        <v>729.3344202864664</v>
       </c>
       <c r="AB3" t="n">
-        <v>932.9388613622968</v>
+        <v>997.9075297997015</v>
       </c>
       <c r="AC3" t="n">
-        <v>843.9004858217943</v>
+        <v>902.6686357276319</v>
       </c>
       <c r="AD3" t="n">
-        <v>681851.176883053</v>
+        <v>729334.4202864664</v>
       </c>
       <c r="AE3" t="n">
-        <v>932938.8613622969</v>
+        <v>997907.5297997015</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.027314540735891e-06</v>
+        <v>3.693326811631268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.03611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>843900.4858217943</v>
+        <v>902668.6357276319</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>685.7174686098326</v>
+        <v>733.2007120132461</v>
       </c>
       <c r="AB4" t="n">
-        <v>938.2288922716298</v>
+        <v>1003.197560709034</v>
       </c>
       <c r="AC4" t="n">
-        <v>848.6856436057454</v>
+        <v>907.4537935115827</v>
       </c>
       <c r="AD4" t="n">
-        <v>685717.4686098326</v>
+        <v>733200.712013246</v>
       </c>
       <c r="AE4" t="n">
-        <v>938228.8922716298</v>
+        <v>1003197.560709034</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027314540735891e-06</v>
+        <v>3.693326811631268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>848685.6436057454</v>
+        <v>907453.7935115828</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.2754643456212</v>
+        <v>719.8086732605209</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.6815313815511</v>
+        <v>984.8739824725034</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.7217501409639</v>
+        <v>890.878991864643</v>
       </c>
       <c r="AD2" t="n">
-        <v>658275.4643456212</v>
+        <v>719808.6732605209</v>
       </c>
       <c r="AE2" t="n">
-        <v>900681.5313815511</v>
+        <v>984873.9824725033</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.91722260979111e-06</v>
+        <v>3.757138585169075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.66944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>814721.7501409638</v>
+        <v>890878.9918646431</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2755.882800288302</v>
+        <v>2867.730230823907</v>
       </c>
       <c r="AB2" t="n">
-        <v>3770.720428323064</v>
+        <v>3923.755017142274</v>
       </c>
       <c r="AC2" t="n">
-        <v>3410.848162883129</v>
+        <v>3549.277345330821</v>
       </c>
       <c r="AD2" t="n">
-        <v>2755882.800288302</v>
+        <v>2867730.230823907</v>
       </c>
       <c r="AE2" t="n">
-        <v>3770720.428323064</v>
+        <v>3923755.017142274</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.932262134687533e-07</v>
+        <v>1.708827034860112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3410848.162883129</v>
+        <v>3549277.345330821</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1103.809719384504</v>
+        <v>1164.77870697858</v>
       </c>
       <c r="AB3" t="n">
-        <v>1510.281154709861</v>
+        <v>1593.701613297974</v>
       </c>
       <c r="AC3" t="n">
-        <v>1366.142040997265</v>
+        <v>1441.600968099077</v>
       </c>
       <c r="AD3" t="n">
-        <v>1103809.719384504</v>
+        <v>1164778.70697858</v>
       </c>
       <c r="AE3" t="n">
-        <v>1510281.154709861</v>
+        <v>1593701.613297974</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.666843268951853e-06</v>
+        <v>2.867772519728345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.4625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1366142.040997265</v>
+        <v>1441600.968099077</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>826.3516101946574</v>
+        <v>887.3205082801823</v>
       </c>
       <c r="AB4" t="n">
-        <v>1130.650729128433</v>
+        <v>1214.071065246998</v>
       </c>
       <c r="AC4" t="n">
-        <v>1022.74301041868</v>
+        <v>1098.201826739266</v>
       </c>
       <c r="AD4" t="n">
-        <v>826351.6101946573</v>
+        <v>887320.5082801823</v>
       </c>
       <c r="AE4" t="n">
-        <v>1130650.729128433</v>
+        <v>1214071.065246998</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.920347023180062e-06</v>
+        <v>3.303920964855267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.81666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1022743.01041868</v>
+        <v>1098201.826739266</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>755.319129779194</v>
+        <v>806.1124108832538</v>
       </c>
       <c r="AB5" t="n">
-        <v>1033.460955692128</v>
+        <v>1102.958563740114</v>
       </c>
       <c r="AC5" t="n">
-        <v>934.8288925524317</v>
+        <v>997.6937464288237</v>
       </c>
       <c r="AD5" t="n">
-        <v>755319.129779194</v>
+        <v>806112.4108832538</v>
       </c>
       <c r="AE5" t="n">
-        <v>1033460.955692128</v>
+        <v>1102958.563740114</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.997370287739075e-06</v>
+        <v>3.436438044053123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>934828.8925524318</v>
+        <v>997693.7464288237</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>758.5393907777982</v>
+        <v>809.3326718818579</v>
       </c>
       <c r="AB6" t="n">
-        <v>1037.867058858307</v>
+        <v>1107.364666906293</v>
       </c>
       <c r="AC6" t="n">
-        <v>938.8144834164349</v>
+        <v>1001.679337292827</v>
       </c>
       <c r="AD6" t="n">
-        <v>758539.3907777981</v>
+        <v>809332.6718818579</v>
       </c>
       <c r="AE6" t="n">
-        <v>1037867.058858307</v>
+        <v>1107364.666906293</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.997519847476083e-06</v>
+        <v>3.436695358770012e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.39861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>938814.4834164348</v>
+        <v>1001679.337292827</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.3276715909535</v>
+        <v>734.6499999714025</v>
       </c>
       <c r="AB2" t="n">
-        <v>922.644869508018</v>
+        <v>1005.180540431456</v>
       </c>
       <c r="AC2" t="n">
-        <v>834.5889381023793</v>
+        <v>909.2475204324261</v>
       </c>
       <c r="AD2" t="n">
-        <v>674327.6715909535</v>
+        <v>734649.9999714025</v>
       </c>
       <c r="AE2" t="n">
-        <v>922644.869508018</v>
+        <v>1005180.540431456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840339874455208e-06</v>
+        <v>3.689256425808657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>834588.9381023793</v>
+        <v>909247.5204324261</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1682.81972300259</v>
+        <v>1771.062647846853</v>
       </c>
       <c r="AB2" t="n">
-        <v>2302.508185778672</v>
+        <v>2423.246048553683</v>
       </c>
       <c r="AC2" t="n">
-        <v>2082.76003611849</v>
+        <v>2191.974846726908</v>
       </c>
       <c r="AD2" t="n">
-        <v>1682819.72300259</v>
+        <v>1771062.647846853</v>
       </c>
       <c r="AE2" t="n">
-        <v>2302508.185778672</v>
+        <v>2423246.048553682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.287454100650699e-06</v>
+        <v>2.280176878975334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2082760.03611849</v>
+        <v>2191974.846726908</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>809.0903437245889</v>
+        <v>867.8052619898865</v>
       </c>
       <c r="AB3" t="n">
-        <v>1107.033102830754</v>
+        <v>1187.369444320712</v>
       </c>
       <c r="AC3" t="n">
-        <v>1001.379417227304</v>
+        <v>1074.048571038224</v>
       </c>
       <c r="AD3" t="n">
-        <v>809090.343724589</v>
+        <v>867805.2619898865</v>
       </c>
       <c r="AE3" t="n">
-        <v>1107033.102830754</v>
+        <v>1187369.444320712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.908324176000728e-06</v>
+        <v>3.379783917350758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1001379.417227304</v>
+        <v>1074048.571038224</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.8685230304851</v>
+        <v>765.6686926418035</v>
       </c>
       <c r="AB4" t="n">
-        <v>967.1686980486314</v>
+        <v>1047.621684191239</v>
       </c>
       <c r="AC4" t="n">
-        <v>874.8634749366624</v>
+        <v>947.6381409982949</v>
       </c>
       <c r="AD4" t="n">
-        <v>706868.5230304851</v>
+        <v>765668.6926418035</v>
       </c>
       <c r="AE4" t="n">
-        <v>967168.6980486314</v>
+        <v>1047621.684191239</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.023075519754377e-06</v>
+        <v>3.583017073955081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.675</v>
       </c>
       <c r="AH4" t="n">
-        <v>874863.4749366625</v>
+        <v>947638.1409982949</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2149.548818919638</v>
+        <v>2249.485395003325</v>
       </c>
       <c r="AB2" t="n">
-        <v>2941.107525446875</v>
+        <v>3077.845157735325</v>
       </c>
       <c r="AC2" t="n">
-        <v>2660.412351088562</v>
+        <v>2784.099935663759</v>
       </c>
       <c r="AD2" t="n">
-        <v>2149548.818919638</v>
+        <v>2249485.395003325</v>
       </c>
       <c r="AE2" t="n">
-        <v>2941107.525446875</v>
+        <v>3077845.157735325</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13423722609386e-06</v>
+        <v>1.978010681615556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.65555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>2660412.351088562</v>
+        <v>2784099.935663759</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.092567049969</v>
+        <v>1008.105717212923</v>
       </c>
       <c r="AB3" t="n">
-        <v>1297.222077129833</v>
+        <v>1379.334716776113</v>
       </c>
       <c r="AC3" t="n">
-        <v>1173.417022751181</v>
+        <v>1247.692947315434</v>
       </c>
       <c r="AD3" t="n">
-        <v>948092.567049969</v>
+        <v>1008105.717212923</v>
       </c>
       <c r="AE3" t="n">
-        <v>1297222.077129833</v>
+        <v>1379334.716776113</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781719860197138e-06</v>
+        <v>3.107163857823226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1173417.022751181</v>
+        <v>1247692.947315434</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.7903024760863</v>
+        <v>796.7181117844686</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.108996741847</v>
+        <v>1090.10486926593</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.8964889826678</v>
+        <v>986.0667905149824</v>
       </c>
       <c r="AD4" t="n">
-        <v>736790.3024760863</v>
+        <v>796718.1117844686</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008108.996741847</v>
+        <v>1090104.86926593</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.003387444343083e-06</v>
+        <v>3.493732768736676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.56111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>911896.4889826678</v>
+        <v>986066.7905149823</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>731.6953463800518</v>
+        <v>781.7916457037516</v>
       </c>
       <c r="AB5" t="n">
-        <v>1001.137853037653</v>
+        <v>1069.681819865085</v>
       </c>
       <c r="AC5" t="n">
-        <v>905.5906614495408</v>
+        <v>967.5928882850239</v>
       </c>
       <c r="AD5" t="n">
-        <v>731695.3463800518</v>
+        <v>781791.6457037516</v>
       </c>
       <c r="AE5" t="n">
-        <v>1001137.853037653</v>
+        <v>1069681.819865085</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.01298542221332e-06</v>
+        <v>3.510470804054578e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.51111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>905590.6614495408</v>
+        <v>967592.888285024</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3565.875299496211</v>
+        <v>3689.924403382404</v>
       </c>
       <c r="AB2" t="n">
-        <v>4878.987900086452</v>
+        <v>5048.717356683772</v>
       </c>
       <c r="AC2" t="n">
-        <v>4413.344142604542</v>
+        <v>4566.874858080995</v>
       </c>
       <c r="AD2" t="n">
-        <v>3565875.299496211</v>
+        <v>3689924.403382404</v>
       </c>
       <c r="AE2" t="n">
-        <v>4878987.900086452</v>
+        <v>5048717.356683772</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.646577211689559e-07</v>
+        <v>1.469860819604595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.61944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4413344.142604542</v>
+        <v>4566874.858080995</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1266.851245693358</v>
+        <v>1328.875887145005</v>
       </c>
       <c r="AB3" t="n">
-        <v>1733.361763890127</v>
+        <v>1818.226614658331</v>
       </c>
       <c r="AC3" t="n">
-        <v>1567.932149932968</v>
+        <v>1644.697618452421</v>
       </c>
       <c r="AD3" t="n">
-        <v>1266851.245693358</v>
+        <v>1328875.887145005</v>
       </c>
       <c r="AE3" t="n">
-        <v>1733361.763890127</v>
+        <v>1818226.614658331</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.563589379113862e-06</v>
+        <v>2.657998315451644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1567932.149932968</v>
+        <v>1644697.61845242</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>947.1039645269389</v>
+        <v>998.7911806547366</v>
       </c>
       <c r="AB4" t="n">
-        <v>1295.869427543757</v>
+        <v>1366.590156928852</v>
       </c>
       <c r="AC4" t="n">
-        <v>1172.193468143145</v>
+        <v>1236.164710372893</v>
       </c>
       <c r="AD4" t="n">
-        <v>947103.9645269389</v>
+        <v>998791.1806547367</v>
       </c>
       <c r="AE4" t="n">
-        <v>1295869.427543757</v>
+        <v>1366590.156928852</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.824604252425919e-06</v>
+        <v>3.101706300961534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.19444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1172193.468143145</v>
+        <v>1236164.710372893</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>797.8996561183612</v>
+        <v>849.5015313915876</v>
       </c>
       <c r="AB5" t="n">
-        <v>1091.721510349619</v>
+        <v>1162.325472612516</v>
       </c>
       <c r="AC5" t="n">
-        <v>987.5291416426141</v>
+        <v>1051.394760840423</v>
       </c>
       <c r="AD5" t="n">
-        <v>797899.6561183613</v>
+        <v>849501.5313915876</v>
       </c>
       <c r="AE5" t="n">
-        <v>1091721.510349619</v>
+        <v>1162325.472612516</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.963272999205226e-06</v>
+        <v>3.337433980023972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.40277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>987529.1416426142</v>
+        <v>1051394.760840423</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>782.3375426658123</v>
+        <v>833.9394179390384</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070.428740171851</v>
+        <v>1141.032702434748</v>
       </c>
       <c r="AC6" t="n">
-        <v>968.2685235660211</v>
+        <v>1032.13414276383</v>
       </c>
       <c r="AD6" t="n">
-        <v>782337.5426658123</v>
+        <v>833939.4179390385</v>
       </c>
       <c r="AE6" t="n">
-        <v>1070428.740171851</v>
+        <v>1141032.702434747</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.98091907514745e-06</v>
+        <v>3.367431139607739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.30972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>968268.5235660211</v>
+        <v>1032134.14276383</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1308.125813123004</v>
+        <v>1375.382927159633</v>
       </c>
       <c r="AB2" t="n">
-        <v>1789.835447952771</v>
+        <v>1881.859598552146</v>
       </c>
       <c r="AC2" t="n">
-        <v>1619.016064849986</v>
+        <v>1702.257559672863</v>
       </c>
       <c r="AD2" t="n">
-        <v>1308125.813123004</v>
+        <v>1375382.927159633</v>
       </c>
       <c r="AE2" t="n">
-        <v>1789835.447952771</v>
+        <v>1881859.598552146</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.463593875705804e-06</v>
+        <v>2.639206102668108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1619016.064849986</v>
+        <v>1702257.559672863</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>690.0922024732373</v>
+        <v>747.6557397855896</v>
       </c>
       <c r="AB3" t="n">
-        <v>944.2145961431767</v>
+        <v>1022.975567417973</v>
       </c>
       <c r="AC3" t="n">
-        <v>854.1000803007801</v>
+        <v>925.344215018827</v>
       </c>
       <c r="AD3" t="n">
-        <v>690092.2024732373</v>
+        <v>747655.7397855896</v>
       </c>
       <c r="AE3" t="n">
-        <v>944214.5961431767</v>
+        <v>1022975.567417973</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.017850512983959e-06</v>
+        <v>3.638661978939378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>854100.08030078</v>
+        <v>925344.215018827</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>685.5568475765747</v>
+        <v>743.120384888927</v>
       </c>
       <c r="AB4" t="n">
-        <v>938.0091234878261</v>
+        <v>1016.770094762622</v>
       </c>
       <c r="AC4" t="n">
-        <v>848.4868492462205</v>
+        <v>919.7309839642676</v>
       </c>
       <c r="AD4" t="n">
-        <v>685556.8475765747</v>
+        <v>743120.384888927</v>
       </c>
       <c r="AE4" t="n">
-        <v>938009.1234878261</v>
+        <v>1016770.094762622</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.02835020817924e-06</v>
+        <v>3.657595414023736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>848486.8492462204</v>
+        <v>919730.9839642675</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>838.5469245998059</v>
+        <v>903.223627241568</v>
       </c>
       <c r="AB2" t="n">
-        <v>1147.336896316857</v>
+        <v>1235.830414206059</v>
       </c>
       <c r="AC2" t="n">
-        <v>1037.836673229823</v>
+        <v>1117.884493973112</v>
       </c>
       <c r="AD2" t="n">
-        <v>838546.924599806</v>
+        <v>903223.6272415681</v>
       </c>
       <c r="AE2" t="n">
-        <v>1147336.896316857</v>
+        <v>1235830.414206058</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.79005537400615e-06</v>
+        <v>3.339671149694755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.85694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1037836.673229823</v>
+        <v>1117884.493973112</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>664.8393977059416</v>
+        <v>720.1791285022068</v>
       </c>
       <c r="AB3" t="n">
-        <v>909.6625945854439</v>
+        <v>985.3808556775102</v>
       </c>
       <c r="AC3" t="n">
-        <v>822.8456732776784</v>
+        <v>891.3374898023649</v>
       </c>
       <c r="AD3" t="n">
-        <v>664839.3977059416</v>
+        <v>720179.1285022069</v>
       </c>
       <c r="AE3" t="n">
-        <v>909662.594585444</v>
+        <v>985380.8556775103</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.012279430342222e-06</v>
+        <v>3.754270206512073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>822845.6732776784</v>
+        <v>891337.4898023648</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>662.0225900333219</v>
+        <v>715.7382745662576</v>
       </c>
       <c r="AB2" t="n">
-        <v>905.8085140589816</v>
+        <v>979.3046834056958</v>
       </c>
       <c r="AC2" t="n">
-        <v>819.3594207874257</v>
+        <v>885.841218884211</v>
       </c>
       <c r="AD2" t="n">
-        <v>662022.5900333219</v>
+        <v>715738.2745662576</v>
       </c>
       <c r="AE2" t="n">
-        <v>905808.5140589816</v>
+        <v>979304.6834056957</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.958698896360186e-06</v>
+        <v>3.766650613322223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>819359.4207874257</v>
+        <v>885841.218884211</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>663.9838596773141</v>
+        <v>717.6995442102498</v>
       </c>
       <c r="AB3" t="n">
-        <v>908.4920097110015</v>
+        <v>981.9881790577157</v>
       </c>
       <c r="AC3" t="n">
-        <v>821.7868073807268</v>
+        <v>888.2686054775121</v>
       </c>
       <c r="AD3" t="n">
-        <v>663983.8596773141</v>
+        <v>717699.5442102498</v>
       </c>
       <c r="AE3" t="n">
-        <v>908492.0097110015</v>
+        <v>981988.1790577157</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.964184487528007e-06</v>
+        <v>3.777199608563454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.12222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>821786.8073807268</v>
+        <v>888268.6054775121</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.1063384683977</v>
+        <v>771.2375316146471</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.3893552718006</v>
+        <v>1055.24121535372</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.4448273301115</v>
+        <v>954.530474800708</v>
       </c>
       <c r="AD2" t="n">
-        <v>704106.3384683976</v>
+        <v>771237.5316146471</v>
       </c>
       <c r="AE2" t="n">
-        <v>963389.3552718005</v>
+        <v>1055241.21535372</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.709460587724136e-06</v>
+        <v>3.525932248136157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>871444.8273301115</v>
+        <v>954530.474800708</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1907.592376129929</v>
+        <v>1996.784409861615</v>
       </c>
       <c r="AB2" t="n">
-        <v>2610.052046057097</v>
+        <v>2732.088521483609</v>
       </c>
       <c r="AC2" t="n">
-        <v>2360.952342012462</v>
+        <v>2471.341827503536</v>
       </c>
       <c r="AD2" t="n">
-        <v>1907592.376129929</v>
+        <v>1996784.409861615</v>
       </c>
       <c r="AE2" t="n">
-        <v>2610052.046057098</v>
+        <v>2732088.521483609</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.207261939870464e-06</v>
+        <v>2.121111604554157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2360952.342012462</v>
+        <v>2471341.827503536</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>879.2114836877906</v>
+        <v>938.6728395089149</v>
       </c>
       <c r="AB3" t="n">
-        <v>1202.975940054771</v>
+        <v>1284.333590339112</v>
       </c>
       <c r="AC3" t="n">
-        <v>1088.165604723279</v>
+        <v>1161.758595050662</v>
       </c>
       <c r="AD3" t="n">
-        <v>879211.4836877906</v>
+        <v>938672.8395089149</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202975.940054771</v>
+        <v>1284333.590339112</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.842282335721268e-06</v>
+        <v>3.236817389921861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>1088165.604723279</v>
+        <v>1161758.595050662</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>716.7168019855201</v>
+        <v>776.0928169520728</v>
       </c>
       <c r="AB4" t="n">
-        <v>980.6435477903136</v>
+        <v>1061.884430952457</v>
       </c>
       <c r="AC4" t="n">
-        <v>887.0523039310691</v>
+        <v>960.5396712265133</v>
       </c>
       <c r="AD4" t="n">
-        <v>716716.8019855201</v>
+        <v>776092.8169520728</v>
       </c>
       <c r="AE4" t="n">
-        <v>980643.5477903136</v>
+        <v>1061884.430952457</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.0196941400382e-06</v>
+        <v>3.548522931605643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.58194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>887052.3039310691</v>
+        <v>960539.6712265133</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>720.3254266515879</v>
+        <v>779.7014416181405</v>
       </c>
       <c r="AB5" t="n">
-        <v>985.5810272597121</v>
+        <v>1066.821910421856</v>
       </c>
       <c r="AC5" t="n">
-        <v>891.5185572897038</v>
+        <v>965.0059245851485</v>
       </c>
       <c r="AD5" t="n">
-        <v>720325.4266515879</v>
+        <v>779701.4416181406</v>
       </c>
       <c r="AE5" t="n">
-        <v>985581.0272597121</v>
+        <v>1066821.910421856</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.0196941400382e-06</v>
+        <v>3.548522931605643e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.58055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>891518.5572897039</v>
+        <v>965005.9245851485</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3141.292738235011</v>
+        <v>3254.044461385562</v>
       </c>
       <c r="AB2" t="n">
-        <v>4298.055308508227</v>
+        <v>4452.32719037778</v>
       </c>
       <c r="AC2" t="n">
-        <v>3887.854942222551</v>
+        <v>4027.403332208414</v>
       </c>
       <c r="AD2" t="n">
-        <v>3141292.738235011</v>
+        <v>3254044.461385562</v>
       </c>
       <c r="AE2" t="n">
-        <v>4298055.308508227</v>
+        <v>4452327.190377779</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.268593545489943e-07</v>
+        <v>1.584826204851997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.21805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3887854.942222551</v>
+        <v>4027403.332208414</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1177.651667062025</v>
+        <v>1249.371673614362</v>
       </c>
       <c r="AB3" t="n">
-        <v>1611.314965199062</v>
+        <v>1709.44544222735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1457.53332641522</v>
+        <v>1546.298368442918</v>
       </c>
       <c r="AD3" t="n">
-        <v>1177651.667062025</v>
+        <v>1249371.673614362</v>
       </c>
       <c r="AE3" t="n">
-        <v>1611314.965199062</v>
+        <v>1709445.44222735</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.615442756008845e-06</v>
+        <v>2.762227083964567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.74722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1457533.32641522</v>
+        <v>1546298.368442918</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>892.0496420731715</v>
+        <v>943.3392654438003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1220.541674737224</v>
+        <v>1290.718400171406</v>
       </c>
       <c r="AC4" t="n">
-        <v>1104.054890341302</v>
+        <v>1167.534047593698</v>
       </c>
       <c r="AD4" t="n">
-        <v>892049.6420731716</v>
+        <v>943339.2654438003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1220541.674737224</v>
+        <v>1290718.400171406</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.871363288075965e-06</v>
+        <v>3.199822673402185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1104054.890341302</v>
+        <v>1167534.047593698</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.5432678165687</v>
+        <v>820.7475503326261</v>
       </c>
       <c r="AB5" t="n">
-        <v>1052.923048879546</v>
+        <v>1122.983007191529</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.4335508812618</v>
+        <v>1015.807085101719</v>
       </c>
       <c r="AD5" t="n">
-        <v>769543.2678165687</v>
+        <v>820747.5503326261</v>
       </c>
       <c r="AE5" t="n">
-        <v>1052923.048879546</v>
+        <v>1122983.007191529</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.987165104729743e-06</v>
+        <v>3.397830874648291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.36388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>952433.5508812618</v>
+        <v>1015807.085101719</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>769.1244786376694</v>
+        <v>820.3287611537268</v>
       </c>
       <c r="AB6" t="n">
-        <v>1052.350043049301</v>
+        <v>1122.410001361285</v>
       </c>
       <c r="AC6" t="n">
-        <v>951.915231923237</v>
+        <v>1015.288766143694</v>
       </c>
       <c r="AD6" t="n">
-        <v>769124.4786376695</v>
+        <v>820328.7611537267</v>
       </c>
       <c r="AE6" t="n">
-        <v>1052350.043049301</v>
+        <v>1122410.001361285</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.991761591690392e-06</v>
+        <v>3.405690355107484e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.33888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>951915.231923237</v>
+        <v>1015288.766143694</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>793.2226020320969</v>
+        <v>866.3787068868016</v>
       </c>
       <c r="AB2" t="n">
-        <v>1085.322158611729</v>
+        <v>1185.417568693502</v>
       </c>
       <c r="AC2" t="n">
-        <v>981.7405350530411</v>
+        <v>1072.2829796814</v>
       </c>
       <c r="AD2" t="n">
-        <v>793222.6020320969</v>
+        <v>866378.7068868016</v>
       </c>
       <c r="AE2" t="n">
-        <v>1085322.158611729</v>
+        <v>1185417.568693502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467790055435947e-06</v>
+        <v>3.146150138898133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>981740.5350530411</v>
+        <v>1072282.9796814</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>986.1387453907062</v>
+        <v>1051.786453216262</v>
       </c>
       <c r="AB2" t="n">
-        <v>1349.278536814556</v>
+        <v>1439.100626833949</v>
       </c>
       <c r="AC2" t="n">
-        <v>1220.505286985294</v>
+        <v>1301.754882799332</v>
       </c>
       <c r="AD2" t="n">
-        <v>986138.7453907061</v>
+        <v>1051786.453216262</v>
       </c>
       <c r="AE2" t="n">
-        <v>1349278.536814556</v>
+        <v>1439100.626833949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.66859679094358e-06</v>
+        <v>3.074277015604624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.59305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1220505.286985294</v>
+        <v>1301754.882799332</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>672.0160874669384</v>
+        <v>718.9073968508865</v>
       </c>
       <c r="AB3" t="n">
-        <v>919.4820581296464</v>
+        <v>983.6408163273328</v>
       </c>
       <c r="AC3" t="n">
-        <v>831.727981002926</v>
+        <v>889.7635173656076</v>
       </c>
       <c r="AD3" t="n">
-        <v>672016.0874669384</v>
+        <v>718907.3968508865</v>
       </c>
       <c r="AE3" t="n">
-        <v>919482.0581296463</v>
+        <v>983640.8163273328</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.022957236857414e-06</v>
+        <v>3.727162230310244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>831727.981002926</v>
+        <v>889763.5173656077</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1482.43509162153</v>
+        <v>1569.688288080508</v>
       </c>
       <c r="AB2" t="n">
-        <v>2028.333092777089</v>
+        <v>2147.716765511619</v>
       </c>
       <c r="AC2" t="n">
-        <v>1834.751829185818</v>
+        <v>1942.741691750601</v>
       </c>
       <c r="AD2" t="n">
-        <v>1482435.09162153</v>
+        <v>1569688.288080508</v>
       </c>
       <c r="AE2" t="n">
-        <v>2028333.092777089</v>
+        <v>2147716.765511618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371924858968475e-06</v>
+        <v>2.450843639829895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.91805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1834751.829185819</v>
+        <v>1942741.691750601</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.2919569477034</v>
+        <v>790.8608676607662</v>
       </c>
       <c r="AB3" t="n">
-        <v>1015.636603105779</v>
+        <v>1082.090729452507</v>
       </c>
       <c r="AC3" t="n">
-        <v>918.7056711602875</v>
+        <v>978.8175089574363</v>
       </c>
       <c r="AD3" t="n">
-        <v>742291.9569477034</v>
+        <v>790860.8676607662</v>
       </c>
       <c r="AE3" t="n">
-        <v>1015636.603105779</v>
+        <v>1082090.729452507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.976445954858205e-06</v>
+        <v>3.530776460726749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>918705.6711602875</v>
+        <v>978817.5089574363</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>694.8737138196389</v>
+        <v>753.0709584104816</v>
       </c>
       <c r="AB4" t="n">
-        <v>950.7568709127161</v>
+        <v>1030.384908443134</v>
       </c>
       <c r="AC4" t="n">
-        <v>860.0179695484549</v>
+        <v>932.0464189356228</v>
       </c>
       <c r="AD4" t="n">
-        <v>694873.7138196388</v>
+        <v>753070.9584104816</v>
       </c>
       <c r="AE4" t="n">
-        <v>950756.870912716</v>
+        <v>1030384.908443135</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.028172207276338e-06</v>
+        <v>3.623181635778782e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.76666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>860017.9695484549</v>
+        <v>932046.4189356228</v>
       </c>
     </row>
   </sheetData>
